--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="896">
   <si>
     <t>anchor score</t>
   </si>
@@ -313,478 +313,478 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>significantly</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>significantly</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>3</t>
@@ -3067,10 +3067,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3128,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03185839993720284</v>
+        <v>0.03235933293981706</v>
       </c>
       <c r="C3">
         <v>228</v>
@@ -3149,28 +3149,28 @@
         <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>0.005224292365090958</v>
+        <v>0.008617650101471891</v>
       </c>
       <c r="L3">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="M3">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>289</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3178,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01929729027872953</v>
+        <v>0.01960071573577372</v>
       </c>
       <c r="C4">
         <v>243</v>
@@ -3199,28 +3199,28 @@
         <v>271</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="K4">
-        <v>0.005187582916494322</v>
+        <v>0.007568340252817916</v>
       </c>
       <c r="L4">
-        <v>768</v>
+        <v>172</v>
       </c>
       <c r="M4">
-        <v>804</v>
+        <v>172</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2303</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3228,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01334401532561732</v>
+        <v>0.01355383307155458</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -3249,28 +3249,28 @@
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="K5">
-        <v>0.004192083220424921</v>
+        <v>0.005224292365090958</v>
       </c>
       <c r="L5">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="M5">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>89</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3278,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01174728170186576</v>
+        <v>0.01193199283321793</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3299,28 +3299,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.004121179332299742</v>
+        <v>0.005187582916494322</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>768</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>804</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>64</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3328,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01054937039028603</v>
+        <v>0.0107152458829571</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3349,28 +3349,28 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.00405244595116503</v>
+        <v>0.004192083220424921</v>
       </c>
       <c r="L7">
-        <v>469</v>
+        <v>287</v>
       </c>
       <c r="M7">
-        <v>491</v>
+        <v>294</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1652</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3378,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01033622982553048</v>
+        <v>0.01049875395268124</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3399,16 +3399,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K8">
-        <v>0.003998131220984541</v>
+        <v>0.004121179332299742</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>182</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3428,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009896186626962447</v>
+        <v>0.01005179163196102</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -3449,28 +3449,28 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>0.003610124456118318</v>
+        <v>0.00405244595116503</v>
       </c>
       <c r="L9">
-        <v>257</v>
+        <v>469</v>
       </c>
       <c r="M9">
-        <v>265</v>
+        <v>491</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>629</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3478,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009668657669522311</v>
+        <v>0.009820685069742967</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -3499,28 +3499,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="K10">
-        <v>0.003562971937256069</v>
+        <v>0.003998131220984541</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3528,7 +3528,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009435643725001219</v>
+        <v>0.009584007275966734</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3549,28 +3549,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>0.003462483205036308</v>
+        <v>0.003610124456118318</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3578,7 +3578,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008951437608263791</v>
+        <v>0.00909218763110424</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3599,28 +3599,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="K12">
-        <v>0.003385754770587098</v>
+        <v>0.003562971937256069</v>
       </c>
       <c r="L12">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="N12">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>639</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3628,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008951437608263791</v>
+        <v>0.00909218763110424</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3649,16 +3649,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K13">
-        <v>0.003213048432649772</v>
+        <v>0.003462483205036308</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3678,7 +3678,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008951437608263791</v>
+        <v>0.00909218763110424</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3699,28 +3699,28 @@
         <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="K14">
-        <v>0.003160800260635285</v>
+        <v>0.003385754770587098</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3728,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008171507166910286</v>
+        <v>0.008299993771042088</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -3749,28 +3749,28 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="K15">
-        <v>0.003120767174234481</v>
+        <v>0.003213048432649772</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>443</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3778,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007894425929325603</v>
+        <v>0.0080185557818131</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -3799,16 +3799,16 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K16">
-        <v>0.003107673783509301</v>
+        <v>0.003160800260635285</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3828,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007607259173207566</v>
+        <v>0.007726873692041247</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -3849,28 +3849,28 @@
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K17">
-        <v>0.003067379322700081</v>
+        <v>0.003120767174234481</v>
       </c>
       <c r="L17">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="M17">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>3022</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3878,7 +3878,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007607259173207566</v>
+        <v>0.007726873692041247</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -3899,28 +3899,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="K18">
-        <v>0.003017062102544315</v>
+        <v>0.003107673783509301</v>
       </c>
       <c r="L18">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3928,7 +3928,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007308818201535247</v>
+        <v>0.007423740113949973</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -3949,28 +3949,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K19">
-        <v>0.003013660536189017</v>
+        <v>0.003067379322700081</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="M19">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>216</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3978,7 +3978,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="K20">
-        <v>0.002942544904661237</v>
+        <v>0.003017062102544315</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4028,7 +4028,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -4049,28 +4049,28 @@
         <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="K21">
-        <v>0.00288540267086359</v>
+        <v>0.003013660536189017</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4078,7 +4078,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -4099,16 +4099,16 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K22">
-        <v>0.00288540267086359</v>
+        <v>0.002942544904661237</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4128,7 +4128,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -4149,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K23">
-        <v>0.00282710569843182</v>
+        <v>0.00288540267086359</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4178,7 +4178,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006672007662808658</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -4199,28 +4199,28 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="K24">
-        <v>0.002795315438971133</v>
+        <v>0.00288540267086359</v>
       </c>
       <c r="L24">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>705</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4228,7 +4228,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006672007662808658</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -4249,28 +4249,28 @@
         <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="K25">
-        <v>0.002757890758496082</v>
+        <v>0.00282710569843182</v>
       </c>
       <c r="L25">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4278,7 +4278,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006672007662808658</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -4299,28 +4299,28 @@
         <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <v>0.002644515229932031</v>
+        <v>0.002795315438971133</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>92</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4328,7 +4328,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006672007662808658</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -4349,28 +4349,28 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="K27">
-        <v>0.002580782605804176</v>
+        <v>0.002757890758496082</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4378,7 +4378,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K28">
-        <v>0.002580782605804176</v>
+        <v>0.002644515229932031</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4428,7 +4428,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -4449,28 +4449,28 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="K29">
-        <v>0.002543711061954172</v>
+        <v>0.002580782605804176</v>
       </c>
       <c r="L29">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4478,7 +4478,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4499,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K30">
-        <v>0.002515435730743348</v>
+        <v>0.002580782605804176</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4528,7 +4528,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4549,16 +4549,16 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K31">
-        <v>0.002448818718491797</v>
+        <v>0.002543711061954172</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="M31">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="N31">
         <v>0.97</v>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4578,7 +4578,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4599,16 +4599,16 @@
         <v>140</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K32">
-        <v>0.002448345354025704</v>
+        <v>0.002515435730743348</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>212</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4628,7 +4628,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4649,28 +4649,28 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="K33">
-        <v>0.002379363996881978</v>
+        <v>0.002448818718491797</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4678,7 +4678,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -4699,16 +4699,16 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K34">
-        <v>0.002379363996881978</v>
+        <v>0.002448345354025704</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>155</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4728,7 +4728,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005967625072175861</v>
+        <v>0.006061458420736162</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4749,28 +4749,28 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="K35">
-        <v>0.002321800602822866</v>
+        <v>0.002379363996881978</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1095</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4778,7 +4778,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005967625072175861</v>
+        <v>0.006061458420736162</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -4799,16 +4799,16 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K36">
-        <v>0.002308322136690872</v>
+        <v>0.002379363996881978</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4828,7 +4828,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -4849,28 +4849,28 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="K37">
-        <v>0.002308322136690872</v>
+        <v>0.002321800602822866</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4878,7 +4878,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4899,28 +4899,28 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="K38">
-        <v>0.002295272818663005</v>
+        <v>0.002308322136690872</v>
       </c>
       <c r="L38">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4928,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4949,28 +4949,28 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="K39">
-        <v>0.00228390996034592</v>
+        <v>0.002308322136690872</v>
       </c>
       <c r="L39">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4978,7 +4978,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -4999,28 +4999,28 @@
         <v>5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="K40">
-        <v>0.002235023298271417</v>
+        <v>0.00228390996034592</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5028,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5049,7 +5049,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K41">
         <v>0.002235023298271417</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>149</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5078,7 +5078,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5099,28 +5099,28 @@
         <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="K42">
-        <v>0.002230288853617221</v>
+        <v>0.002235023298271417</v>
       </c>
       <c r="L42">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5128,7 +5128,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5149,28 +5149,28 @@
         <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K43">
-        <v>0.002223757425840928</v>
+        <v>0.002230288853617221</v>
       </c>
       <c r="L43">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="M43">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5178,7 +5178,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5199,28 +5199,28 @@
         <v>8</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="K44">
-        <v>0.002159237643450802</v>
+        <v>0.002223757425840928</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5228,7 +5228,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K45">
         <v>0.002159237643450802</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5278,7 +5278,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5299,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K46">
         <v>0.002159237643450802</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5328,7 +5328,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K47">
         <v>0.002159237643450802</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>213</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5378,7 +5378,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5399,16 +5399,16 @@
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K48">
-        <v>0.002080693456031883</v>
+        <v>0.002159237643450802</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5449,7 +5449,7 @@
         <v>25</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K49">
         <v>0.002080693456031883</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5478,7 +5478,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5499,7 +5499,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K50">
         <v>0.002080693456031883</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5528,7 +5528,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5549,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K51">
         <v>0.002080693456031883</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5578,7 +5578,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5599,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K52">
         <v>0.002080693456031883</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5628,7 +5628,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5649,16 +5649,16 @@
         <v>29</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K53">
-        <v>0.00199906561049227</v>
+        <v>0.002080693456031883</v>
       </c>
       <c r="L53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5678,7 +5678,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5699,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K54">
         <v>0.00199906561049227</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>348</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5728,7 +5728,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5749,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K55">
         <v>0.00199906561049227</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>113</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -5778,7 +5778,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5799,7 +5799,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K56">
         <v>0.00199906561049227</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5828,7 +5828,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5849,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K57">
         <v>0.00199906561049227</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -5878,7 +5878,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5899,28 +5899,28 @@
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="K58">
-        <v>0.001971839460083239</v>
+        <v>0.00199906561049227</v>
       </c>
       <c r="L58">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="M58">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -5928,7 +5928,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -5949,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K59">
         <v>0.001961203761249004</v>
@@ -5978,7 +5978,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6028,7 +6028,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6078,7 +6078,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6128,7 +6128,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6178,7 +6178,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004106348485701473</v>
+        <v>0.004170915616529683</v>
       </c>
       <c r="C64">
         <v>36</v>
@@ -6228,7 +6228,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6278,7 +6278,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6328,7 +6328,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6378,7 +6378,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6399,7 +6399,7 @@
         <v>10</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K68">
         <v>0.00189997750903841</v>
@@ -6428,7 +6428,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6449,7 +6449,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K69">
         <v>0.001875161188041131</v>
@@ -6478,7 +6478,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6499,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K70">
         <v>0.001875161188041131</v>
@@ -6528,7 +6528,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6578,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6628,7 +6628,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6678,7 +6678,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003208944911657032</v>
+        <v>0.003259401507499527</v>
       </c>
       <c r="C74">
         <v>22</v>
@@ -6699,7 +6699,7 @@
         <v>1652</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K74">
         <v>0.001824482593088982</v>
@@ -6728,7 +6728,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6749,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K75">
         <v>0.00177305202517162</v>
@@ -6778,7 +6778,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6799,7 +6799,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K76">
         <v>0.001747306165214575</v>
@@ -6828,7 +6828,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6878,7 +6878,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6928,7 +6928,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6978,7 +6978,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7028,7 +7028,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7128,7 +7128,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7178,7 +7178,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7228,7 +7228,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7278,7 +7278,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7378,7 +7378,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7428,7 +7428,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7449,7 +7449,7 @@
         <v>20</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K89">
         <v>0.001669315316597869</v>
@@ -7478,7 +7478,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002393635837704103</v>
+        <v>0.002431272730633742</v>
       </c>
       <c r="C90">
         <v>7</v>
@@ -7528,7 +7528,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002334729681195677</v>
+        <v>0.00237144034939619</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -7578,7 +7578,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002328738467841659</v>
+        <v>0.002365354931797746</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -7628,7 +7628,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002188063620797538</v>
+        <v>0.00222246815089439</v>
       </c>
       <c r="C93">
         <v>15</v>
@@ -7678,25 +7678,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00217644463013364</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>319</v>
@@ -7728,7 +7728,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>320</v>
@@ -7778,7 +7778,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>321</v>
@@ -7828,7 +7828,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>322</v>
@@ -7878,7 +7878,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>323</v>
@@ -7928,7 +7928,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7946,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K99">
         <v>0.001514672245396517</v>
@@ -7978,7 +7978,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K100">
         <v>0.00148294186442038</v>
@@ -8028,7 +8028,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>324</v>
@@ -8078,7 +8078,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>325</v>
@@ -8128,7 +8128,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>326</v>
@@ -8178,7 +8178,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>327</v>
@@ -8228,7 +8228,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>328</v>
@@ -8278,7 +8278,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>329</v>
@@ -8328,7 +8328,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>330</v>
@@ -8378,7 +8378,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>331</v>
@@ -8428,7 +8428,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>332</v>
@@ -8478,7 +8478,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>333</v>
@@ -8528,7 +8528,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>334</v>
@@ -8578,7 +8578,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>335</v>
@@ -8628,7 +8628,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>336</v>
@@ -8678,7 +8678,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>337</v>
@@ -8728,7 +8728,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>338</v>
@@ -8778,7 +8778,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>339</v>
@@ -8828,7 +8828,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>340</v>
@@ -8878,7 +8878,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>341</v>
@@ -8928,7 +8928,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>342</v>
@@ -8978,7 +8978,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>343</v>
@@ -9028,7 +9028,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>344</v>
@@ -9078,7 +9078,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9096,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K122">
         <v>0.001345108456148548</v>
@@ -9128,7 +9128,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9146,10 +9146,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K123">
         <v>0.00130777034582061</v>
@@ -9178,7 +9178,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9196,10 +9196,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K124">
         <v>0.001305296390261729</v>
@@ -9228,7 +9228,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>345</v>
@@ -9278,25 +9278,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002109874078057206</v>
+        <v>0.00210634969005129</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>346</v>
@@ -9328,13 +9328,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002073742711509571</v>
+        <v>0.002051597250005484</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E127">
         <v>0.9399999999999999</v>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>347</v>
@@ -9378,25 +9378,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002019837857050391</v>
+        <v>0.001930961325201459</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E128">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>219</v>
+        <v>3022</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>348</v>
@@ -9428,25 +9428,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001904224130382596</v>
+        <v>0.001852514905152018</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D129">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E129">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>55</v>
+        <v>705</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>349</v>
@@ -9478,25 +9478,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001901069415613455</v>
+        <v>0.00173658644648534</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>3022</v>
+        <v>270</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>350</v>
@@ -9528,13 +9528,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001823837371670369</v>
+        <v>0.001669892450377982</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E131">
         <v>0.97</v>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>705</v>
+        <v>28</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>351</v>
@@ -9578,25 +9578,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001709703523263315</v>
+        <v>0.001636210011921901</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>270</v>
+        <v>509</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>352</v>
@@ -9628,13 +9628,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00164404197191582</v>
+        <v>0.001515657586628055</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E133">
         <v>0.97</v>
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>353</v>
@@ -9678,25 +9678,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001610880948566242</v>
+        <v>0.001483857388477076</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E134">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F134">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>354</v>
@@ -9728,25 +9728,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0014921947140399</v>
+        <v>0.001478980874042945</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E135">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F135">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>355</v>
@@ -9778,13 +9778,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001460886793303079</v>
+        <v>0.001464879928559017</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E136">
         <v>0.98</v>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>443</v>
+        <v>23</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>356</v>
@@ -9828,25 +9828,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001456085768899052</v>
+        <v>0.001452305169917492</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E137">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F137">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>357</v>
@@ -9878,25 +9878,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001442203110639218</v>
+        <v>0.001385782744632872</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="E138">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F138">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>358</v>
@@ -9928,25 +9928,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001429823013352893</v>
+        <v>0.00130814630529064</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>359</v>
@@ -9978,25 +9978,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001364330376855977</v>
+        <v>0.001264725877194067</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D140">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="E140">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F140">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>360</v>
@@ -10028,25 +10028,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001287895774855211</v>
+        <v>0.00123924075566639</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E141">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F141">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>361</v>
@@ -10078,25 +10078,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00124514750911321</v>
+        <v>0.001210053893231771</v>
       </c>
       <c r="C142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E142">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F142">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>362</v>
@@ -10128,25 +10128,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001220056905558836</v>
+        <v>0.001207719928014825</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D143">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E143">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F143">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>363</v>
@@ -10178,25 +10178,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001191321865251189</v>
+        <v>0.001202480842653242</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E144">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F144">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>364</v>
@@ -10228,25 +10228,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0011890240305752</v>
+        <v>0.001173192685721063</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E145">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F145">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>365</v>
@@ -10278,28 +10278,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001183866047959648</v>
+        <v>0.001173172606891388</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K146">
         <v>0.001212971602006503</v>
@@ -10328,28 +10328,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001155031281226221</v>
+        <v>0.00116542377654983</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E147">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K147">
         <v>0.001203624594520438</v>
@@ -10378,13 +10378,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001155011513223361</v>
+        <v>0.001141361140028597</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E148">
         <v>0.97</v>
@@ -10396,10 +10396,10 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K148">
         <v>0.001198856873364839</v>
@@ -10428,28 +10428,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001147382637296716</v>
+        <v>0.001137968555924907</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K149">
         <v>0.001198856873364839</v>
@@ -10478,28 +10478,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001123692498218054</v>
+        <v>0.001124071174558964</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K150">
         <v>0.001198856873364839</v>
@@ -10528,25 +10528,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001120352432420129</v>
+        <v>0.001100698780108349</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E151">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F151">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>366</v>
@@ -10578,25 +10578,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001106670187039501</v>
+        <v>0.001069458540674975</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>156</v>
+        <v>1095</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>367</v>
@@ -10628,25 +10628,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001083659604859621</v>
+        <v>0.001030431398243158</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>368</v>
@@ -10678,25 +10678,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001052902974497264</v>
+        <v>0.0009968565742651614</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1095</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>369</v>
@@ -10728,25 +10728,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001014479984928491</v>
+        <v>0.0009848028914875573</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>370</v>
@@ -10778,25 +10778,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0009814249101498629</v>
+        <v>0.0009848028914875573</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E156">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F156">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>371</v>
@@ -10828,25 +10828,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0009695578223035442</v>
+        <v>0.0009753873477516343</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>372</v>
@@ -10878,25 +10878,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0009695578223035442</v>
+        <v>0.0008933631598785447</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>373</v>
@@ -10928,25 +10928,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0009602880342481737</v>
+        <v>0.0008215525667175611</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E159">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F159">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>374</v>
@@ -10978,13 +10978,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008795336074914424</v>
+        <v>0.0008128350491843794</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E160">
         <v>0.97</v>
@@ -10996,7 +10996,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>375</v>
@@ -11028,25 +11028,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008088346656774918</v>
+        <v>0.0008128350491843794</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E161">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F161">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>376</v>
@@ -11078,7 +11078,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0008002520981521289</v>
+        <v>0.0008128350491843794</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11096,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>377</v>
@@ -11128,25 +11128,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008002520981521289</v>
+        <v>0.0008115306263877683</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>378</v>
@@ -11178,25 +11178,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008002520981521289</v>
+        <v>0.000778311571458374</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>379</v>
@@ -11228,25 +11228,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007989678682448272</v>
+        <v>0.0007635655172866596</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E165">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>380</v>
@@ -11278,25 +11278,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007662630550941722</v>
+        <v>0.0007635655172866596</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F166">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>381</v>
@@ -11328,25 +11328,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007517452746389369</v>
+        <v>0.0007428593449829795</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>198</v>
+        <v>517</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>382</v>
@@ -11378,13 +11378,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007517452746389369</v>
+        <v>0.000735907002775772</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E168">
         <v>0.96</v>
@@ -11396,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>383</v>
@@ -11428,25 +11428,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007313596406196525</v>
+        <v>0.0007305120607479058</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>517</v>
+        <v>72</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>384</v>
@@ -11478,13 +11478,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0007245149229318855</v>
+        <v>0.000721184509759566</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E170">
         <v>0.96</v>
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>385</v>
@@ -11528,25 +11528,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0007192034963619546</v>
+        <v>0.0007206432397395202</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>386</v>
@@ -11578,25 +11578,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0007100203388978052</v>
+        <v>0.0007152006479287087</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E172">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F172">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>387</v>
@@ -11628,25 +11628,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0007094874479137817</v>
+        <v>0.0006897030078787417</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>388</v>
@@ -11678,25 +11678,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0007041291091950493</v>
+        <v>0.0006728247852310868</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E174">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F174">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>389</v>
@@ -11728,13 +11728,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006790261809091833</v>
+        <v>0.000655095489115784</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <v>0.95</v>
@@ -11746,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>390</v>
@@ -11778,13 +11778,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006624092386397552</v>
+        <v>0.000655095489115784</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>0.95</v>
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>391</v>
@@ -11828,7 +11828,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006449543977968708</v>
+        <v>0.000655095489115784</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>392</v>
@@ -11878,13 +11878,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006449543977968708</v>
+        <v>0.0006364333977101613</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E178">
         <v>0.95</v>
@@ -11896,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>393</v>
@@ -11928,25 +11928,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006449543977968708</v>
+        <v>0.0006363718817862135</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>394</v>
@@ -11978,25 +11978,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006265812016382628</v>
+        <v>0.000619902690833453</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E180">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F180">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>395</v>
@@ -12028,25 +12028,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.000626520638000833</v>
+        <v>0.0005959217672848457</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E181">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>396</v>
@@ -12078,25 +12078,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006103063954825763</v>
+        <v>0.0005738388090593577</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E182">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>397</v>
@@ -12128,13 +12128,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005866967044331373</v>
+        <v>0.0005738388090593577</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E183">
         <v>0.9399999999999999</v>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>398</v>
@@ -12178,7 +12178,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005649555975860776</v>
+        <v>0.0005738388090593577</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>399</v>
@@ -12228,7 +12228,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005649555975860776</v>
+        <v>0.0005738388090593577</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12246,7 +12246,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>400</v>
@@ -12278,25 +12278,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005649555975860776</v>
+        <v>0.0005719649008371556</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>401</v>
@@ -12328,28 +12328,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005649555975860776</v>
+        <v>0.0005503493900541743</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K187">
         <v>0.001144103247848457</v>
@@ -12378,28 +12378,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005631106980728657</v>
+        <v>0.0005503493900541743</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F188">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K188">
         <v>0.001109013393659255</v>
@@ -12428,13 +12428,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0005418298024298103</v>
+        <v>0.0005252808803052616</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E189">
         <v>0.93</v>
@@ -12446,10 +12446,10 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K189">
         <v>0.001057395263054723</v>
@@ -12478,13 +12478,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005418298024298103</v>
+        <v>0.0005252808803052616</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E190">
         <v>0.93</v>
@@ -12496,10 +12496,10 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K190">
         <v>0.001048424761694232</v>
@@ -12528,7 +12528,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005171493613683127</v>
+        <v>0.0005252808803052616</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12546,10 +12546,10 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K191">
         <v>0.001048424761694232</v>
@@ -12578,7 +12578,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005171493613683127</v>
+        <v>0.0005252808803052616</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12596,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>402</v>
@@ -12628,25 +12628,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005171493613683127</v>
+        <v>0.0004984282871325807</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F193">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>403</v>
@@ -12678,25 +12678,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005171493613683127</v>
+        <v>0.0004383373963641224</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>404</v>
@@ -12728,25 +12728,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004907124550749314</v>
+        <v>0.0004383373963641224</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F195">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>405</v>
@@ -12778,25 +12778,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004315517908472486</v>
+        <v>0.0004307918913732813</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>38</v>
+        <v>931</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>406</v>
@@ -12828,25 +12828,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0004315517908472486</v>
+        <v>0.0004044402599826439</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E197">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F197">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>407</v>
@@ -12878,25 +12878,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0004241230927287349</v>
+        <v>0.0003694871075749783</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E198">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F198">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>931</v>
+        <v>110</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>408</v>
@@ -12928,25 +12928,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003981793931660139</v>
+        <v>0.0003674094772539796</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F199">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>409</v>
@@ -12978,25 +12978,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003637673269302718</v>
+        <v>0.0003674094772539796</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>410</v>
@@ -13028,7 +13028,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003617218590026375</v>
+        <v>0.0003674094772539796</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>411</v>
@@ -13078,25 +13078,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0003617218590026375</v>
+        <v>0.000363732189011248</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E202">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F202">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>412</v>
@@ -13128,25 +13128,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0003617218590026375</v>
+        <v>0.0003266949252431549</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F203">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>413</v>
@@ -13178,25 +13178,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0003581014963783769</v>
+        <v>0.0003266949252431549</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>414</v>
@@ -13228,7 +13228,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003216375815041709</v>
+        <v>0.0003266949252431549</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>415</v>
@@ -13278,7 +13278,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003216375815041709</v>
+        <v>0.0003266949252431549</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>416</v>
@@ -13328,7 +13328,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003216375815041709</v>
+        <v>0.0003266949252431549</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13346,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>417</v>
@@ -13378,7 +13378,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003216375815041709</v>
+        <v>0.0003266949252431549</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13396,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>418</v>
@@ -13428,25 +13428,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003216375815041709</v>
+        <v>0.0002885520256341725</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E209">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F209">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>419</v>
@@ -13478,25 +13478,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003216375815041709</v>
+        <v>0.0002816194140142368</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>420</v>
@@ -13528,25 +13528,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002840851463916315</v>
+        <v>0.0002313732613171795</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>421</v>
@@ -13578,25 +13578,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002772598538552255</v>
+        <v>0.0002313732613171795</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>422</v>
@@ -13628,7 +13628,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002277915279504312</v>
+        <v>0.0002313732613171795</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>423</v>
@@ -13678,25 +13678,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002277915279504312</v>
+        <v>0.0002043648304955838</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F214">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>424</v>
@@ -13728,25 +13728,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002277915279504312</v>
+        <v>0.0001750960455536151</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>425</v>
@@ -13778,25 +13778,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002012011964256449</v>
+        <v>0.0001750960455536151</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F216">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>426</v>
@@ -13828,7 +13828,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000172385501797717</v>
+        <v>0.0001750960455536151</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13846,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>427</v>
@@ -13878,7 +13878,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000172385501797717</v>
+        <v>0.0001750960455536151</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13896,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>428</v>
@@ -13928,7 +13928,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000172385501797717</v>
+        <v>0.0001750960455536151</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -13946,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>429</v>
@@ -13978,25 +13978,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.000172385501797717</v>
+        <v>0.0001588970932323698</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>430</v>
@@ -14028,25 +14028,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.000172385501797717</v>
+        <v>0.0001588970932323698</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>431</v>
@@ -14078,25 +14078,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001564373145290325</v>
+        <v>0.0001562781064546923</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>432</v>
@@ -14128,13 +14128,13 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001564373145290325</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E223">
         <v>0.75</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>433</v>
@@ -14178,25 +14178,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001538588705188092</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224">
+        <v>0.75</v>
+      </c>
+      <c r="F224">
+        <v>0.25</v>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224">
         <v>11</v>
-      </c>
-      <c r="E224">
-        <v>0.73</v>
-      </c>
-      <c r="F224">
-        <v>0.27</v>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>37</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>434</v>
@@ -14228,7 +14228,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001106178859340922</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>435</v>
@@ -14278,7 +14278,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001106178859340922</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>436</v>
@@ -14328,7 +14328,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001106178859340922</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>437</v>
@@ -14378,7 +14378,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001106178859340922</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14396,7 +14396,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>438</v>
@@ -14428,7 +14428,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001106178859340922</v>
+        <v>0.0001123572121354402</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14446,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>439</v>
@@ -14478,25 +14478,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001106178859340922</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>440</v>
@@ -14528,25 +14528,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001106178859340922</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>441</v>
@@ -14578,7 +14578,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.50245348575253E-05</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14596,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>442</v>
@@ -14628,7 +14628,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>4.50245348575253E-05</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14646,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>443</v>
@@ -14678,7 +14678,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>4.50245348575253E-05</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>444</v>
@@ -14728,7 +14728,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>4.50245348575253E-05</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>445</v>
@@ -14778,7 +14778,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>4.50245348575253E-05</v>
+        <v>4.573248866192057E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14796,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>446</v>
@@ -14828,25 +14828,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>4.50245348575253E-05</v>
+        <v>2.234868127192704E-05</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>447</v>
@@ -14878,25 +14878,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>4.50245348575253E-05</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>448</v>
@@ -14928,25 +14928,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>2.200271641428192E-05</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>449</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>450</v>
@@ -15046,7 +15046,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>451</v>
@@ -15096,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>452</v>
@@ -15146,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>453</v>
@@ -15196,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>454</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>455</v>
@@ -15296,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>456</v>
@@ -15346,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>457</v>
@@ -15396,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>458</v>
@@ -15424,30 +15424,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249">
-        <v>0.5</v>
-      </c>
-      <c r="F249">
-        <v>0.5</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>99</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>459</v>
       </c>
@@ -15474,30 +15450,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250">
-        <v>0.5</v>
-      </c>
-      <c r="F250">
-        <v>0.5</v>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>27</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>460</v>
       </c>
@@ -15681,7 +15633,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K257">
         <v>0.0009708068782501476</v>
@@ -15707,7 +15659,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K258">
         <v>0.0009313535969988443</v>
@@ -15733,7 +15685,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K259">
         <v>0.000929881459545503</v>
@@ -15759,7 +15711,7 @@
     </row>
     <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K260">
         <v>0.0008510911127883102</v>
@@ -15785,7 +15737,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K261">
         <v>0.0008463594195828689</v>
@@ -19321,7 +19273,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K397">
         <v>0.0008102541562952536</v>
@@ -19347,7 +19299,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K398">
         <v>0.0007841908910831655</v>
@@ -19373,7 +19325,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K399">
         <v>0.0007689280387823798</v>
@@ -19399,7 +19351,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K400">
         <v>0.0007689280387823798</v>
@@ -19425,7 +19377,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K401">
         <v>0.0007689280387823798</v>
@@ -19451,7 +19403,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K402">
         <v>0.0007270989249574018</v>
@@ -19477,7 +19429,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K403">
         <v>0.0007212445681328862</v>
@@ -19503,7 +19455,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K404">
         <v>0.0006418795341633052</v>
@@ -19529,7 +19481,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K405">
         <v>0.0006257266303178005</v>
@@ -19555,7 +19507,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K406">
         <v>0.0005984664849081571</v>
@@ -19581,7 +19533,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K407">
         <v>0.0005984664849081571</v>
@@ -19607,7 +19559,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K408">
         <v>0.0005984664849081571</v>
@@ -19633,7 +19585,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K409">
         <v>0.0005984664849081571</v>
@@ -19659,7 +19611,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K410">
         <v>0.0005928475008585275</v>
@@ -27329,7 +27281,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K705">
         <v>0.0005545066968296276</v>
@@ -27355,7 +27307,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K706">
         <v>0.0005545066968296276</v>
@@ -27381,7 +27333,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K707">
         <v>0.0005361459610815911</v>
@@ -27407,7 +27359,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K708">
         <v>0.0005278710075189727</v>
@@ -27433,7 +27385,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K709">
         <v>0.0005204520203143224</v>
@@ -27459,7 +27411,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K710">
         <v>0.0005099969250207261</v>
@@ -27485,7 +27437,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K711">
         <v>0.0005099969250207261</v>
@@ -27511,7 +27463,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K712">
         <v>0.0005099969250207261</v>
@@ -27537,7 +27489,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K713">
         <v>0.0005099969250207261</v>
@@ -27563,7 +27515,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K714">
         <v>0.0004846857636998661</v>
@@ -27615,7 +27567,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K716">
         <v>0.0004649407297727515</v>
@@ -27641,7 +27593,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K717">
         <v>0.0004620563271834993</v>
@@ -27667,7 +27619,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K718">
         <v>0.0003732611690084402</v>
@@ -27693,7 +27645,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K719">
         <v>0.0003732611690084402</v>
@@ -27719,7 +27671,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K720">
         <v>0.0003267231622416025</v>
@@ -27745,7 +27697,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K721">
         <v>0.0002798334561444971</v>
@@ -27771,7 +27723,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K722">
         <v>0.0002798334561444971</v>
@@ -27797,7 +27749,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K723">
         <v>0.0002798334561444971</v>
@@ -27823,7 +27775,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K724">
         <v>0.0002327532192899853</v>
@@ -27849,7 +27801,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K725">
         <v>0.0002327532192899853</v>
@@ -27875,7 +27827,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K726">
         <v>0.0002327532192899853</v>
@@ -27901,7 +27853,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K727">
         <v>0.0002327532192899853</v>
@@ -27927,7 +27879,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K728">
         <v>0.0002327532192899853</v>
@@ -27953,7 +27905,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K729">
         <v>0.0002327532192899853</v>
@@ -27979,7 +27931,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K730">
         <v>0.0002297033712769272</v>
@@ -28005,7 +27957,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K731">
         <v>0.0002208644478017456</v>
@@ -28031,7 +27983,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K732">
         <v>0.0002149349139920674</v>
@@ -28057,7 +28009,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K733">
         <v>0.0001857558517194193</v>
@@ -28083,7 +28035,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K734">
         <v>0.0001648293980075159</v>
@@ -28135,7 +28087,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K736">
         <v>0.0001393164689774648</v>
@@ -28161,7 +28113,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K737">
         <v>0.0001393164689774648</v>
@@ -28187,7 +28139,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K738">
         <v>0.0001393164689774648</v>
@@ -28213,7 +28165,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K739">
         <v>0.0001029542951751958</v>
@@ -28239,7 +28191,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K740">
         <v>9.429976745594325E-05</v>
@@ -28265,7 +28217,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K741">
         <v>9.429976745594325E-05</v>
@@ -28291,7 +28243,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K742">
         <v>9.429976745594325E-05</v>
@@ -28317,7 +28269,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K743">
         <v>9.429976745594325E-05</v>
@@ -28343,7 +28295,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K744">
         <v>9.429976745594325E-05</v>
@@ -28369,7 +28321,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K745">
         <v>7.411069194250571E-05</v>
@@ -28395,7 +28347,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K746">
         <v>7.411069194250571E-05</v>
@@ -28421,7 +28373,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K747">
         <v>6.872057660087765E-05</v>
@@ -28447,7 +28399,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K748">
         <v>5.240417283097303E-05</v>
@@ -28473,7 +28425,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K749">
         <v>5.240417283097303E-05</v>
@@ -28499,7 +28451,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K750">
         <v>5.240417283097303E-05</v>
@@ -28525,7 +28477,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K751">
         <v>5.240417283097303E-05</v>
@@ -28551,7 +28503,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K752">
         <v>5.240417283097303E-05</v>
@@ -28577,7 +28529,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K753">
         <v>5.240417283097303E-05</v>
@@ -28603,7 +28555,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K754">
         <v>5.240417283097303E-05</v>
@@ -28629,7 +28581,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K755">
         <v>1.741582777886256E-05</v>
@@ -28655,7 +28607,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K756">
         <v>1.741582777886256E-05</v>
@@ -28681,7 +28633,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K757">
         <v>1.741582777886256E-05</v>
@@ -28707,7 +28659,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K758">
         <v>1.741582777886256E-05</v>
@@ -28733,7 +28685,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K759">
         <v>1.741582777886256E-05</v>
@@ -28759,7 +28711,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K760">
         <v>1.741582777886256E-05</v>
@@ -28785,7 +28737,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K761">
         <v>1.741582777886256E-05</v>
@@ -28811,7 +28763,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K762">
         <v>7.370582633665257E-06</v>
@@ -28837,7 +28789,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K763">
         <v>0</v>
@@ -28863,7 +28815,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K764">
         <v>0</v>
@@ -28889,7 +28841,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K765">
         <v>0</v>
@@ -28915,7 +28867,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K766">
         <v>0</v>
@@ -28941,7 +28893,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K767">
         <v>0</v>
@@ -28967,7 +28919,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K768">
         <v>0</v>
@@ -28993,7 +28945,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K769">
         <v>0</v>
@@ -29019,7 +28971,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K770">
         <v>0</v>
@@ -29045,7 +28997,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K771">
         <v>0</v>
@@ -29071,7 +29023,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K772">
         <v>0</v>
@@ -29097,7 +29049,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K773">
         <v>0</v>
